--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_246.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_246.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(94.06, 105.58)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(90.14, 98.78)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -708,178 +718,190 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:42.140000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:02.980000', '0:00:06.700000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (25.48, 32.58)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:06.600000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:00:09.600000', '0:00:32.340000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:44.820000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -888,88 +910,94 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -978,227 +1006,178 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(35.14, 42.32)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(49.0, 62.78)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.92, 149.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.38, 142.38)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
